--- a/Data/Population_data.xlsx
+++ b/Data/Population_data.xlsx
@@ -8,83 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ha_b_\OneDrive\Documents\Skole\Assignments_MSB104\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55DA1F8-948D-4CDA-83EB-56251DB9A335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD5EF70-8D43-4EAC-BD6D-AB71C8211AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="1006">
-  <si>
-    <t>Population on 1 January by broad age group, sex and NUTS 3 region [demo_r_pjanaggr3__custom_18643308]</t>
-  </si>
-  <si>
-    <t>Open product page</t>
-  </si>
-  <si>
-    <t>Open in Data Browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description: </t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last update of data: </t>
-  </si>
-  <si>
-    <t>14/10/2025 23:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last change of data structure: </t>
-  </si>
-  <si>
-    <t>14/02/2025 11:00</t>
-  </si>
-  <si>
-    <t>Institutional source(s)</t>
-  </si>
-  <si>
-    <t>Eurostat</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Time frequency [FREQ]</t>
-  </si>
-  <si>
-    <t>Unit of measure [UNIT]</t>
-  </si>
-  <si>
-    <t>Sex [SEX]</t>
-  </si>
-  <si>
-    <t>Age class [AGE]</t>
-  </si>
-  <si>
-    <t>Sheet 1</t>
-  </si>
-  <si>
-    <t>Annual [A]</t>
-  </si>
-  <si>
-    <t>Number [NR]</t>
-  </si>
-  <si>
-    <t>Total [T]</t>
-  </si>
-  <si>
-    <t>Total [TOTAL]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="985">
   <si>
     <t>TIME</t>
   </si>
@@ -3045,7 +2981,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -3066,17 +3002,6 @@
       <b/>
       <sz val="9"/>
       <color indexed="9"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color indexed="12"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -3153,7 +3078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3174,30 +3099,14 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3214,55 +3123,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>324615</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12192000" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3581,130 +3441,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:O16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B8:O8"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B16" location="'Sheet 1'!A1" display="Sheet 1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y483"/>
   <sheetViews>
@@ -3723,165 +3459,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="X1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C3" s="7">
         <v>582443</v>
@@ -3955,10 +3691,10 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C4" s="6">
         <v>362048</v>
@@ -4032,10 +3768,10 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C5" s="7">
         <v>497826</v>
@@ -4109,10 +3845,10 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6">
         <v>256136</v>
@@ -4186,10 +3922,10 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>495443</v>
@@ -4263,10 +3999,10 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C8" s="6">
         <v>407213</v>
@@ -4340,10 +4076,10 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7">
         <v>119526</v>
@@ -4417,10 +4153,10 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C10" s="6">
         <v>317578</v>
@@ -4494,10 +4230,10 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C11" s="7">
         <v>106930</v>
@@ -4571,10 +4307,10 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C12" s="6">
         <v>184819</v>
@@ -4648,10 +4384,10 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C13" s="7">
         <v>137135</v>
@@ -4725,10 +4461,10 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C14" s="6">
         <v>136890</v>
@@ -4802,10 +4538,10 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C15" s="7">
         <v>313318</v>
@@ -4879,10 +4615,10 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C16" s="6">
         <v>52627</v>
@@ -4956,10 +4692,10 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C17" s="7">
         <v>277204</v>
@@ -5033,10 +4769,10 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C18" s="6">
         <v>416429</v>
@@ -5110,10 +4846,10 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C19" s="7">
         <v>223529</v>
@@ -5187,10 +4923,10 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C20" s="6">
         <v>139672</v>
@@ -5264,10 +5000,10 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C21" s="7">
         <v>307730</v>
@@ -5341,10 +5077,10 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C22" s="6">
         <v>148938</v>
@@ -5418,10 +5154,10 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C23" s="7">
         <v>521954</v>
@@ -5495,10 +5231,10 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C24" s="6">
         <v>117227</v>
@@ -5572,10 +5308,10 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C25" s="7">
         <v>158294</v>
@@ -5649,10 +5385,10 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C26" s="6">
         <v>191590</v>
@@ -5726,10 +5462,10 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C27" s="7">
         <v>121063</v>
@@ -5803,10 +5539,10 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C28" s="6">
         <v>202455</v>
@@ -5880,10 +5616,10 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C29" s="7">
         <v>238770</v>
@@ -5957,10 +5693,10 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C30" s="6">
         <v>150406</v>
@@ -6034,10 +5770,10 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C31" s="7">
         <v>405607</v>
@@ -6111,10 +5847,10 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C32" s="6">
         <v>140628</v>
@@ -6188,10 +5924,10 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C33" s="7">
         <v>209605</v>
@@ -6265,10 +6001,10 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C34" s="6">
         <v>132274</v>
@@ -6342,10 +6078,10 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C35" s="7">
         <v>264540</v>
@@ -6419,10 +6155,10 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C36" s="6">
         <v>216111</v>
@@ -6496,10 +6232,10 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C37" s="7">
         <v>164968</v>
@@ -6573,10 +6309,10 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C38" s="6">
         <v>276671</v>
@@ -6650,10 +6386,10 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C39" s="7">
         <v>207030</v>
@@ -6727,10 +6463,10 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C40" s="6">
         <v>192920</v>
@@ -6804,10 +6540,10 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C41" s="7">
         <v>116103</v>
@@ -6881,10 +6617,10 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C42" s="6">
         <v>184803</v>
@@ -6958,10 +6694,10 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C43" s="7">
         <v>181409</v>
@@ -7035,10 +6771,10 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C44" s="6">
         <v>198024</v>
@@ -7112,10 +6848,10 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C45" s="7">
         <v>267147</v>
@@ -7189,10 +6925,10 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C46" s="6">
         <v>132899</v>
@@ -7266,10 +7002,10 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C47" s="7">
         <v>114826</v>
@@ -7343,10 +7079,10 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C48" s="6">
         <v>1194560</v>
@@ -7420,10 +7156,10 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C49" s="7">
         <v>58721</v>
@@ -7497,10 +7233,10 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C50" s="6">
         <v>107945</v>
@@ -7574,10 +7310,10 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C51" s="7">
         <v>99281</v>
@@ -7651,10 +7387,10 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C52" s="6">
         <v>114765</v>
@@ -7728,10 +7464,10 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C53" s="7">
         <v>127972</v>
@@ -7805,10 +7541,10 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C54" s="6">
         <v>116404</v>
@@ -7882,10 +7618,10 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C55" s="7">
         <v>118430</v>
@@ -7959,10 +7695,10 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C56" s="6">
         <v>113460</v>
@@ -8036,10 +7772,10 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C57" s="7">
         <v>149712</v>
@@ -8113,10 +7849,10 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C58" s="6">
         <v>190995</v>
@@ -8190,10 +7926,10 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C59" s="7">
         <v>86217</v>
@@ -8267,10 +8003,10 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="C60" s="6">
         <v>104233</v>
@@ -8344,10 +8080,10 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C61" s="7">
         <v>90669</v>
@@ -8421,10 +8157,10 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="C62" s="6">
         <v>107907</v>
@@ -8498,10 +8234,10 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="C63" s="7">
         <v>289702</v>
@@ -8575,10 +8311,10 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="C64" s="6">
         <v>88580</v>
@@ -8652,10 +8388,10 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C65" s="7">
         <v>110423</v>
@@ -8729,10 +8465,10 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C66" s="6">
         <v>233478</v>
@@ -8806,10 +8542,10 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C67" s="7">
         <v>123045</v>
@@ -8883,10 +8619,10 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C68" s="6">
         <v>166672</v>
@@ -8960,10 +8696,10 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C69" s="7">
         <v>125646</v>
@@ -9037,10 +8773,10 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="C70" s="6">
         <v>58515</v>
@@ -9114,10 +8850,10 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C71" s="7">
         <v>50291</v>
@@ -9191,10 +8927,10 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="C72" s="6">
         <v>43906</v>
@@ -9268,10 +9004,10 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="C73" s="7">
         <v>115288</v>
@@ -9345,10 +9081,10 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C74" s="6">
         <v>82445</v>
@@ -9422,10 +9158,10 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="C75" s="7">
         <v>108721</v>
@@ -9499,10 +9235,10 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="C76" s="6">
         <v>140582</v>
@@ -9576,10 +9312,10 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="C77" s="7">
         <v>185627</v>
@@ -9653,10 +9389,10 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C78" s="6">
         <v>82526</v>
@@ -9730,10 +9466,10 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C79" s="7">
         <v>117612</v>
@@ -9807,10 +9543,10 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C80" s="6">
         <v>94520</v>
@@ -9884,10 +9620,10 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C81" s="7">
         <v>90137</v>
@@ -9961,10 +9697,10 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C82" s="6">
         <v>43367</v>
@@ -10038,10 +9774,10 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C83" s="7">
         <v>125236</v>
@@ -10115,10 +9851,10 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C84" s="6">
         <v>42997</v>
@@ -10192,10 +9928,10 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="C85" s="7">
         <v>108368</v>
@@ -10269,10 +10005,10 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C86" s="6">
         <v>130951</v>
@@ -10346,10 +10082,10 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="C87" s="7">
         <v>125329</v>
@@ -10423,10 +10159,10 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C88" s="6">
         <v>100738</v>
@@ -10500,10 +10236,10 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C89" s="7">
         <v>174119</v>
@@ -10577,10 +10313,10 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="C90" s="6">
         <v>142812</v>
@@ -10654,10 +10390,10 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="C91" s="7">
         <v>80421</v>
@@ -10731,10 +10467,10 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C92" s="6">
         <v>69004</v>
@@ -10808,10 +10544,10 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C93" s="7">
         <v>73967</v>
@@ -10885,10 +10621,10 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C94" s="6">
         <v>43272</v>
@@ -10962,10 +10698,10 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C95" s="7">
         <v>51133</v>
@@ -11039,10 +10775,10 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C96" s="6">
         <v>141687</v>
@@ -11116,10 +10852,10 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="C97" s="7">
         <v>108895</v>
@@ -11193,10 +10929,10 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="C98" s="6">
         <v>92304</v>
@@ -11270,10 +11006,10 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="C99" s="7">
         <v>111848</v>
@@ -11347,10 +11083,10 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="C100" s="6">
         <v>109661</v>
@@ -11424,10 +11160,10 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="C101" s="7">
         <v>75905</v>
@@ -11501,10 +11237,10 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="C102" s="6">
         <v>78815</v>
@@ -11578,10 +11314,10 @@
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="C103" s="7">
         <v>70910</v>
@@ -11655,10 +11391,10 @@
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="C104" s="6">
         <v>86754</v>
@@ -11732,10 +11468,10 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C105" s="7">
         <v>40163</v>
@@ -11809,10 +11545,10 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C106" s="6">
         <v>100750</v>
@@ -11886,10 +11622,10 @@
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="C107" s="7">
         <v>109771</v>
@@ -11963,10 +11699,10 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="C108" s="6">
         <v>486628</v>
@@ -12040,10 +11776,10 @@
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="C109" s="7">
         <v>37947</v>
@@ -12117,10 +11853,10 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="C110" s="6">
         <v>182307</v>
@@ -12194,10 +11930,10 @@
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C111" s="7">
         <v>128177</v>
@@ -12271,10 +12007,10 @@
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="C112" s="6">
         <v>113369</v>
@@ -12348,10 +12084,10 @@
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="C113" s="7">
         <v>167483</v>
@@ -12425,10 +12161,10 @@
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C114" s="6">
         <v>98201</v>
@@ -12502,10 +12238,10 @@
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="C115" s="7">
         <v>123496</v>
@@ -12579,10 +12315,10 @@
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="C116" s="6">
         <v>94990</v>
@@ -12656,10 +12392,10 @@
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C117" s="7">
         <v>67028</v>
@@ -12733,10 +12469,10 @@
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="C118" s="6">
         <v>54511</v>
@@ -12810,10 +12546,10 @@
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="C119" s="7">
         <v>127350</v>
@@ -12887,10 +12623,10 @@
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="C120" s="6">
         <v>173730</v>
@@ -12964,10 +12700,10 @@
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="C121" s="7">
         <v>109413</v>
@@ -13041,10 +12777,10 @@
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="C122" s="6">
         <v>87076</v>
@@ -13118,10 +12854,10 @@
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="C123" s="7">
         <v>88371</v>
@@ -13195,10 +12931,10 @@
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="C124" s="6">
         <v>88730</v>
@@ -13272,10 +13008,10 @@
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="C125" s="7">
         <v>130635</v>
@@ -13349,10 +13085,10 @@
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C126" s="6">
         <v>132014</v>
@@ -13426,10 +13162,10 @@
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="C127" s="7">
         <v>116290</v>
@@ -13503,10 +13239,10 @@
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C128" s="6">
         <v>158655</v>
@@ -13580,10 +13316,10 @@
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="C129" s="7">
         <v>254867</v>
@@ -13657,10 +13393,10 @@
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C130" s="6">
         <v>41772</v>
@@ -13734,10 +13470,10 @@
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="C131" s="7">
         <v>61348</v>
@@ -13811,10 +13547,10 @@
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C132" s="6">
         <v>40993</v>
@@ -13888,10 +13624,10 @@
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="C133" s="7">
         <v>121833</v>
@@ -13965,10 +13701,10 @@
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="C134" s="6">
         <v>235035</v>
@@ -14042,10 +13778,10 @@
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="C135" s="7">
         <v>93479</v>
@@ -14119,10 +13855,10 @@
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="C136" s="6">
         <v>121284</v>
@@ -14196,10 +13932,10 @@
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="C137" s="7">
         <v>158923</v>
@@ -14273,10 +14009,10 @@
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="C138" s="6">
         <v>76815</v>
@@ -14350,10 +14086,10 @@
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="C139" s="7">
         <v>130650</v>
@@ -14427,10 +14163,10 @@
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="C140" s="6">
         <v>132773</v>
@@ -14504,10 +14240,10 @@
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="C141" s="7">
         <v>129085</v>
@@ -14581,10 +14317,10 @@
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="C142" s="6">
         <v>146719</v>
@@ -14658,10 +14394,10 @@
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C143" s="7">
         <v>3386667</v>
@@ -14735,10 +14471,10 @@
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="C144" s="6">
         <v>79828</v>
@@ -14812,10 +14548,10 @@
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C145" s="7">
         <v>115970</v>
@@ -14889,10 +14625,10 @@
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="C146" s="6">
         <v>73832</v>
@@ -14966,10 +14702,10 @@
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="C147" s="7">
         <v>139695</v>
@@ -15043,10 +14779,10 @@
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C148" s="6">
         <v>167914</v>
@@ -15120,10 +14856,10 @@
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="C149" s="7">
         <v>157341</v>
@@ -15197,10 +14933,10 @@
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C150" s="6">
         <v>132873</v>
@@ -15274,10 +15010,10 @@
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C151" s="7">
         <v>146064</v>
@@ -15351,10 +15087,10 @@
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C152" s="6">
         <v>186573</v>
@@ -15428,10 +15164,10 @@
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="C153" s="7">
         <v>189191</v>
@@ -15505,10 +15241,10 @@
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="C154" s="6">
         <v>148124</v>
@@ -15582,10 +15318,10 @@
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="C155" s="7">
         <v>196784</v>
@@ -15659,10 +15395,10 @@
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C156" s="6">
         <v>114273</v>
@@ -15736,10 +15472,10 @@
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="C157" s="7">
         <v>193086</v>
@@ -15813,10 +15549,10 @@
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="C158" s="6">
         <v>97076</v>
@@ -15890,10 +15626,10 @@
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="C159" s="7">
         <v>150171</v>
@@ -15967,10 +15703,10 @@
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="C160" s="6">
         <v>158326</v>
@@ -16044,10 +15780,10 @@
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="C161" s="7">
         <v>154086</v>
@@ -16121,10 +15857,10 @@
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="C162" s="6">
         <v>540330</v>
@@ -16198,10 +15934,10 @@
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="C163" s="7">
         <v>122735</v>
@@ -16275,10 +16011,10 @@
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C164" s="6">
         <v>1704735</v>
@@ -16352,10 +16088,10 @@
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="C165" s="7">
         <v>137776</v>
@@ -16429,10 +16165,10 @@
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="C166" s="6">
         <v>643821</v>
@@ -16506,10 +16242,10 @@
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="C167" s="7">
         <v>116627</v>
@@ -16583,10 +16319,10 @@
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="C168" s="6">
         <v>268716</v>
@@ -16660,10 +16396,10 @@
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="C169" s="7">
         <v>262613</v>
@@ -16737,10 +16473,10 @@
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="C170" s="6">
         <v>285484</v>
@@ -16814,10 +16550,10 @@
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C171" s="7">
         <v>248190</v>
@@ -16891,10 +16627,10 @@
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="C172" s="6">
         <v>223976</v>
@@ -16968,10 +16704,10 @@
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C173" s="7">
         <v>404375</v>
@@ -17045,10 +16781,10 @@
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="C174" s="6">
         <v>218170</v>
@@ -17122,10 +16858,10 @@
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="C175" s="7">
         <v>99373</v>
@@ -17199,10 +16935,10 @@
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="C176" s="6">
         <v>333336</v>
@@ -17276,10 +17012,10 @@
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="C177" s="7">
         <v>184328</v>
@@ -17353,10 +17089,10 @@
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="C178" s="6">
         <v>292569</v>
@@ -17430,10 +17166,10 @@
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="C179" s="7">
         <v>253210</v>
@@ -17507,10 +17243,10 @@
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="C180" s="6">
         <v>262951</v>
@@ -17584,10 +17320,10 @@
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="C181" s="7">
         <v>175089</v>
@@ -17661,10 +17397,10 @@
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="C182" s="6">
         <v>253583</v>
@@ -17738,10 +17474,10 @@
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="C183" s="7">
         <v>118670</v>
@@ -17815,10 +17551,10 @@
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="C184" s="6">
         <v>196211</v>
@@ -17892,10 +17628,10 @@
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="C185" s="7">
         <v>217080</v>
@@ -17969,10 +17705,10 @@
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="C186" s="6">
         <v>131131</v>
@@ -18046,10 +17782,10 @@
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="C187" s="7">
         <v>245591</v>
@@ -18123,10 +17859,10 @@
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="C188" s="6">
         <v>193367</v>
@@ -18200,10 +17936,10 @@
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="C189" s="7">
         <v>170709</v>
@@ -18277,10 +18013,10 @@
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="C190" s="6">
         <v>115020</v>
@@ -18354,10 +18090,10 @@
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="C191" s="7">
         <v>203279</v>
@@ -18431,10 +18167,10 @@
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="C192" s="6">
         <v>102878</v>
@@ -18508,43 +18244,43 @@
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I193" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J193" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K193" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L193" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M193" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N193" s="7">
         <v>268753</v>
@@ -18585,43 +18321,43 @@
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H194" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I194" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J194" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K194" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L194" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M194" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N194" s="6">
         <v>213181</v>
@@ -18662,43 +18398,43 @@
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I195" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J195" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K195" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L195" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M195" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N195" s="7">
         <v>226176</v>
@@ -18739,43 +18475,43 @@
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H196" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I196" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J196" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K196" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L196" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M196" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N196" s="6">
         <v>157152</v>
@@ -18816,43 +18552,43 @@
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I197" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J197" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K197" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L197" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M197" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N197" s="7">
         <v>242518</v>
@@ -18893,43 +18629,43 @@
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H198" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I198" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J198" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K198" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L198" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M198" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N198" s="6">
         <v>215265</v>
@@ -18970,10 +18706,10 @@
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="C199" s="7">
         <v>246322</v>
@@ -19047,10 +18783,10 @@
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="C200" s="6">
         <v>112934</v>
@@ -19124,10 +18860,10 @@
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="C201" s="7">
         <v>121954</v>
@@ -19201,10 +18937,10 @@
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="C202" s="6">
         <v>170033</v>
@@ -19278,10 +19014,10 @@
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="C203" s="7">
         <v>157013</v>
@@ -19355,10 +19091,10 @@
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="C204" s="6">
         <v>100634</v>
@@ -19432,10 +19168,10 @@
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="C205" s="7">
         <v>151845</v>
@@ -19509,10 +19245,10 @@
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="C206" s="6">
         <v>131291</v>
@@ -19586,10 +19322,10 @@
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="C207" s="7">
         <v>125597</v>
@@ -19663,52 +19399,52 @@
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H208" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I208" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J208" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K208" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L208" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M208" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N208" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O208" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P208" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Q208" s="6">
         <v>322616</v>
@@ -19740,10 +19476,10 @@
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="C209" s="7">
         <v>210004</v>
@@ -19817,10 +19553,10 @@
     </row>
     <row r="210" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="C210" s="6">
         <v>162891</v>
@@ -19894,10 +19630,10 @@
     </row>
     <row r="211" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="C211" s="7">
         <v>292466</v>
@@ -19971,10 +19707,10 @@
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="C212" s="6">
         <v>81870</v>
@@ -20048,10 +19784,10 @@
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="C213" s="7">
         <v>125745</v>
@@ -20125,10 +19861,10 @@
     </row>
     <row r="214" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="C214" s="6">
         <v>165534</v>
@@ -20202,10 +19938,10 @@
     </row>
     <row r="215" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="C215" s="7">
         <v>1114249</v>
@@ -20279,10 +20015,10 @@
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="C216" s="6">
         <v>181441</v>
@@ -20356,10 +20092,10 @@
     </row>
     <row r="217" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="C217" s="7">
         <v>203833</v>
@@ -20433,10 +20169,10 @@
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="C218" s="6">
         <v>229961</v>
@@ -20510,10 +20246,10 @@
     </row>
     <row r="219" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="C219" s="7">
         <v>52079</v>
@@ -20587,10 +20323,10 @@
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="C220" s="6">
         <v>164347</v>
@@ -20664,10 +20400,10 @@
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="C221" s="7">
         <v>109538</v>
@@ -20741,10 +20477,10 @@
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="C222" s="6">
         <v>160036</v>
@@ -20818,10 +20554,10 @@
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C223" s="7">
         <v>139173</v>
@@ -20895,10 +20631,10 @@
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="C224" s="6">
         <v>190729</v>
@@ -20972,10 +20708,10 @@
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="C225" s="7">
         <v>97231</v>
@@ -21049,10 +20785,10 @@
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="C226" s="6">
         <v>132285</v>
@@ -21126,10 +20862,10 @@
     </row>
     <row r="227" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="C227" s="7">
         <v>76903</v>
@@ -21203,10 +20939,10 @@
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="C228" s="6">
         <v>51173</v>
@@ -21280,10 +21016,10 @@
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="C229" s="7">
         <v>154125</v>
@@ -21357,10 +21093,10 @@
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="C230" s="6">
         <v>164539</v>
@@ -21434,10 +21170,10 @@
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="C231" s="7">
         <v>86453</v>
@@ -21511,10 +21247,10 @@
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="C232" s="6">
         <v>109458</v>
@@ -21588,10 +21324,10 @@
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="C233" s="7">
         <v>186024</v>
@@ -21665,10 +21401,10 @@
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="C234" s="6">
         <v>147894</v>
@@ -21742,10 +21478,10 @@
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="C235" s="7">
         <v>301079</v>
@@ -21819,10 +21555,10 @@
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="C236" s="6">
         <v>100335</v>
@@ -21896,10 +21632,10 @@
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="C237" s="7">
         <v>128995</v>
@@ -21973,10 +21709,10 @@
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="C238" s="6">
         <v>160313</v>
@@ -22050,10 +21786,10 @@
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="C239" s="7">
         <v>119302</v>
@@ -22127,10 +21863,10 @@
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="C240" s="6">
         <v>353038</v>
@@ -22204,10 +21940,10 @@
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="C241" s="7">
         <v>124655</v>
@@ -22281,10 +22017,10 @@
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="C242" s="6">
         <v>94130</v>
@@ -22358,10 +22094,10 @@
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="C243" s="7">
         <v>57298</v>
@@ -22435,10 +22171,10 @@
     </row>
     <row r="244" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="C244" s="6">
         <v>568855</v>
@@ -22512,10 +22248,10 @@
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="C245" s="7">
         <v>519793</v>
@@ -22589,10 +22325,10 @@
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="C246" s="6">
         <v>599515</v>
@@ -22666,10 +22402,10 @@
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="C247" s="7">
         <v>241769</v>
@@ -22743,10 +22479,10 @@
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="C248" s="6">
         <v>263697</v>
@@ -22820,10 +22556,10 @@
     </row>
     <row r="249" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="C249" s="7">
         <v>173895</v>
@@ -22897,10 +22633,10 @@
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="C250" s="6">
         <v>222349</v>
@@ -22974,10 +22710,10 @@
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="C251" s="7">
         <v>120125</v>
@@ -23051,10 +22787,10 @@
     </row>
     <row r="252" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="C252" s="6">
         <v>165583</v>
@@ -23128,10 +22864,10 @@
     </row>
     <row r="253" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="C253" s="7">
         <v>368993</v>
@@ -23205,10 +22941,10 @@
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="C254" s="6">
         <v>297608</v>
@@ -23282,10 +23018,10 @@
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="C255" s="7">
         <v>506649</v>
@@ -23359,10 +23095,10 @@
     </row>
     <row r="256" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="C256" s="6">
         <v>443071</v>
@@ -23436,10 +23172,10 @@
     </row>
     <row r="257" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="C257" s="7">
         <v>299199</v>
@@ -23513,10 +23249,10 @@
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="C258" s="6">
         <v>473367</v>
@@ -23590,10 +23326,10 @@
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="C259" s="7">
         <v>301048</v>
@@ -23667,10 +23403,10 @@
     </row>
     <row r="260" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="C260" s="6">
         <v>962507</v>
@@ -23744,10 +23480,10 @@
     </row>
     <row r="261" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="C261" s="7">
         <v>160841</v>
@@ -23821,10 +23557,10 @@
     </row>
     <row r="262" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="C262" s="6">
         <v>266457</v>
@@ -23898,10 +23634,10 @@
     </row>
     <row r="263" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="C263" s="7">
         <v>452503</v>
@@ -23975,10 +23711,10 @@
     </row>
     <row r="264" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="C264" s="6">
         <v>187885</v>
@@ -24052,10 +23788,10 @@
     </row>
     <row r="265" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="C265" s="7">
         <v>248283</v>
@@ -24129,10 +23865,10 @@
     </row>
     <row r="266" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="C266" s="6">
         <v>286398</v>
@@ -24206,10 +23942,10 @@
     </row>
     <row r="267" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="C267" s="7">
         <v>275712</v>
@@ -24283,10 +24019,10 @@
     </row>
     <row r="268" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="C268" s="6">
         <v>572637</v>
@@ -24360,43 +24096,43 @@
     </row>
     <row r="269" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E269" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F269" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G269" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H269" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I269" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J269" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K269" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L269" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M269" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N269" s="7">
         <v>540342</v>
@@ -24437,10 +24173,10 @@
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="C270" s="6">
         <v>121097</v>
@@ -24514,10 +24250,10 @@
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="C271" s="7">
         <v>281979</v>
@@ -24591,10 +24327,10 @@
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="C272" s="6">
         <v>264670</v>
@@ -24668,10 +24404,10 @@
     </row>
     <row r="273" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="C273" s="7">
         <v>356706</v>
@@ -24745,10 +24481,10 @@
     </row>
     <row r="274" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="C274" s="6">
         <v>212780</v>
@@ -24822,10 +24558,10 @@
     </row>
     <row r="275" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="C275" s="7">
         <v>660459</v>
@@ -24899,10 +24635,10 @@
     </row>
     <row r="276" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="C276" s="6">
         <v>432552</v>
@@ -24976,10 +24712,10 @@
     </row>
     <row r="277" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="C277" s="7">
         <v>278536</v>
@@ -25053,10 +24789,10 @@
     </row>
     <row r="278" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="C278" s="6">
         <v>321125</v>
@@ -25130,10 +24866,10 @@
     </row>
     <row r="279" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="C279" s="7">
         <v>342879</v>
@@ -25207,10 +24943,10 @@
     </row>
     <row r="280" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="C280" s="6">
         <v>253964</v>
@@ -25284,10 +25020,10 @@
     </row>
     <row r="281" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="C281" s="7">
         <v>155668</v>
@@ -25361,10 +25097,10 @@
     </row>
     <row r="282" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C282" s="6">
         <v>364863</v>
@@ -25438,10 +25174,10 @@
     </row>
     <row r="283" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>611</v>
+        <v>590</v>
       </c>
       <c r="C283" s="7">
         <v>322011</v>
@@ -25515,10 +25251,10 @@
     </row>
     <row r="284" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="C284" s="6">
         <v>288110</v>
@@ -25592,10 +25328,10 @@
     </row>
     <row r="285" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="C285" s="7">
         <v>392830</v>
@@ -25669,10 +25405,10 @@
     </row>
     <row r="286" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="C286" s="6">
         <v>590213</v>
@@ -25746,10 +25482,10 @@
     </row>
     <row r="287" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C287" s="7">
         <v>205201</v>
@@ -25823,10 +25559,10 @@
     </row>
     <row r="288" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="C288" s="6">
         <v>181804</v>
@@ -25900,10 +25636,10 @@
     </row>
     <row r="289" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="C289" s="7">
         <v>175661</v>
@@ -25977,10 +25713,10 @@
     </row>
     <row r="290" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="C290" s="6">
         <v>351413</v>
@@ -26054,10 +25790,10 @@
     </row>
     <row r="291" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="C291" s="7">
         <v>283055</v>
@@ -26131,10 +25867,10 @@
     </row>
     <row r="292" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="C292" s="6">
         <v>459615</v>
@@ -26208,10 +25944,10 @@
     </row>
     <row r="293" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="C293" s="7">
         <v>140921</v>
@@ -26285,10 +26021,10 @@
     </row>
     <row r="294" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="C294" s="6">
         <v>297207</v>
@@ -26362,10 +26098,10 @@
     </row>
     <row r="295" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="C295" s="7">
         <v>306131</v>
@@ -26439,10 +26175,10 @@
     </row>
     <row r="296" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="C296" s="6">
         <v>430207</v>
@@ -26516,10 +26252,10 @@
     </row>
     <row r="297" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="C297" s="7">
         <v>108003</v>
@@ -26593,10 +26329,10 @@
     </row>
     <row r="298" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="C298" s="6">
         <v>128947</v>
@@ -26670,10 +26406,10 @@
     </row>
     <row r="299" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="C299" s="7">
         <v>137456</v>
@@ -26747,10 +26483,10 @@
     </row>
     <row r="300" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="C300" s="6">
         <v>157087</v>
@@ -26824,10 +26560,10 @@
     </row>
     <row r="301" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="C301" s="7">
         <v>90143</v>
@@ -26901,10 +26637,10 @@
     </row>
     <row r="302" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="C302" s="6">
         <v>209706</v>
@@ -26978,10 +26714,10 @@
     </row>
     <row r="303" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="C303" s="7">
         <v>183929</v>
@@ -27055,10 +26791,10 @@
     </row>
     <row r="304" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="C304" s="6">
         <v>128953</v>
@@ -27132,10 +26868,10 @@
     </row>
     <row r="305" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="C305" s="7">
         <v>201435</v>
@@ -27209,52 +26945,52 @@
     </row>
     <row r="306" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F306" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G306" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H306" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I306" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J306" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K306" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L306" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M306" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N306" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O306" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P306" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Q306" s="6">
         <v>62114</v>
@@ -27286,52 +27022,52 @@
     </row>
     <row r="307" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E307" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F307" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G307" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H307" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I307" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J307" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K307" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L307" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M307" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N307" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O307" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P307" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Q307" s="7">
         <v>101858</v>
@@ -27363,10 +27099,10 @@
     </row>
     <row r="308" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
       <c r="C308" s="6">
         <v>99891</v>
@@ -27440,10 +27176,10 @@
     </row>
     <row r="309" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="C309" s="7">
         <v>113752</v>
@@ -27517,10 +27253,10 @@
     </row>
     <row r="310" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="C310" s="6">
         <v>96244</v>
@@ -27594,10 +27330,10 @@
     </row>
     <row r="311" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="C311" s="7">
         <v>64331</v>
@@ -27671,10 +27407,10 @@
     </row>
     <row r="312" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="C312" s="6">
         <v>137330</v>
@@ -27748,10 +27484,10 @@
     </row>
     <row r="313" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="C313" s="7">
         <v>48213</v>
@@ -27825,10 +27561,10 @@
     </row>
     <row r="314" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="C314" s="6">
         <v>100025</v>
@@ -27902,10 +27638,10 @@
     </row>
     <row r="315" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="C315" s="7">
         <v>40810</v>
@@ -27979,10 +27715,10 @@
     </row>
     <row r="316" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="C316" s="6">
         <v>163771</v>
@@ -28056,10 +27792,10 @@
     </row>
     <row r="317" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="C317" s="7">
         <v>183134</v>
@@ -28133,10 +27869,10 @@
     </row>
     <row r="318" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="C318" s="6">
         <v>53886</v>
@@ -28210,10 +27946,10 @@
     </row>
     <row r="319" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="C319" s="7">
         <v>45773</v>
@@ -28287,10 +28023,10 @@
     </row>
     <row r="320" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="C320" s="6">
         <v>49851</v>
@@ -28364,10 +28100,10 @@
     </row>
     <row r="321" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="C321" s="7">
         <v>80361</v>
@@ -28441,10 +28177,10 @@
     </row>
     <row r="322" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="C322" s="6">
         <v>35646</v>
@@ -28518,10 +28254,10 @@
     </row>
     <row r="323" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="C323" s="7">
         <v>123113</v>
@@ -28595,10 +28331,10 @@
     </row>
     <row r="324" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="C324" s="6">
         <v>133517</v>
@@ -28672,10 +28408,10 @@
     </row>
     <row r="325" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
       <c r="C325" s="7">
         <v>78258</v>
@@ -28749,10 +28485,10 @@
     </row>
     <row r="326" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="C326" s="6">
         <v>123003</v>
@@ -28826,10 +28562,10 @@
     </row>
     <row r="327" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="C327" s="7">
         <v>110142</v>
@@ -28903,10 +28639,10 @@
     </row>
     <row r="328" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="C328" s="6">
         <v>79184</v>
@@ -28980,10 +28716,10 @@
     </row>
     <row r="329" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
       <c r="C329" s="7">
         <v>109028</v>
@@ -29057,10 +28793,10 @@
     </row>
     <row r="330" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="C330" s="6">
         <v>146479</v>
@@ -29134,10 +28870,10 @@
     </row>
     <row r="331" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="C331" s="7">
         <v>193066</v>
@@ -29211,10 +28947,10 @@
     </row>
     <row r="332" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="C332" s="6">
         <v>105728</v>
@@ -29288,10 +29024,10 @@
     </row>
     <row r="333" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="C333" s="7">
         <v>351816</v>
@@ -29365,10 +29101,10 @@
     </row>
     <row r="334" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="C334" s="6">
         <v>105856</v>
@@ -29442,10 +29178,10 @@
     </row>
     <row r="335" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="C335" s="7">
         <v>148069</v>
@@ -29519,10 +29255,10 @@
     </row>
     <row r="336" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="C336" s="6">
         <v>212559</v>
@@ -29596,10 +29332,10 @@
     </row>
     <row r="337" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="C337" s="7">
         <v>157625</v>
@@ -29673,10 +29409,10 @@
     </row>
     <row r="338" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="C338" s="6">
         <v>95576</v>
@@ -29750,10 +29486,10 @@
     </row>
     <row r="339" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="C339" s="7">
         <v>476668</v>
@@ -29827,43 +29563,43 @@
     </row>
     <row r="340" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F340" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G340" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H340" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I340" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J340" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K340" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L340" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M340" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N340" s="6">
         <v>316395</v>
@@ -29904,43 +29640,43 @@
     </row>
     <row r="341" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D341" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E341" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F341" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G341" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H341" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I341" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J341" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K341" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L341" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M341" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N341" s="7">
         <v>271210</v>
@@ -29981,43 +29717,43 @@
     </row>
     <row r="342" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F342" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H342" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I342" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J342" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K342" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L342" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M342" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N342" s="6">
         <v>247936</v>
@@ -30058,43 +29794,43 @@
     </row>
     <row r="343" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D343" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E343" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F343" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G343" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H343" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I343" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J343" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K343" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L343" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M343" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N343" s="7">
         <v>247675</v>
@@ -30135,10 +29871,10 @@
     </row>
     <row r="344" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
       <c r="C344" s="6">
         <v>263222</v>
@@ -30212,43 +29948,43 @@
     </row>
     <row r="345" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D345" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E345" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F345" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G345" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H345" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I345" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J345" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K345" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L345" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M345" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N345" s="7">
         <v>363387</v>
@@ -30289,43 +30025,43 @@
     </row>
     <row r="346" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F346" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H346" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I346" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J346" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K346" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L346" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M346" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N346" s="6">
         <v>323365</v>
@@ -30366,43 +30102,43 @@
     </row>
     <row r="347" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D347" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E347" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F347" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G347" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H347" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I347" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J347" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K347" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L347" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M347" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N347" s="7">
         <v>241110</v>
@@ -30443,43 +30179,43 @@
     </row>
     <row r="348" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F348" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H348" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I348" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J348" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K348" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L348" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M348" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N348" s="6">
         <v>336881</v>
@@ -30520,10 +30256,10 @@
     </row>
     <row r="349" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="C349" s="7">
         <v>489532</v>
@@ -30597,43 +30333,43 @@
     </row>
     <row r="350" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F350" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H350" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I350" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J350" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K350" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L350" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M350" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N350" s="6">
         <v>262983</v>
@@ -30674,43 +30410,43 @@
     </row>
     <row r="351" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D351" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E351" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F351" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G351" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H351" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I351" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J351" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K351" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L351" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M351" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N351" s="7">
         <v>202069</v>
@@ -30751,31 +30487,31 @@
     </row>
     <row r="352" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E352" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F352" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H352" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I352" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J352" s="6">
         <v>91243</v>
@@ -30828,10 +30564,10 @@
     </row>
     <row r="353" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="C353" s="7">
         <v>254360</v>
@@ -30905,10 +30641,10 @@
     </row>
     <row r="354" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="C354" s="6">
         <v>235073</v>
@@ -30982,10 +30718,10 @@
     </row>
     <row r="355" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="C355" s="7">
         <v>101828</v>
@@ -31059,31 +30795,31 @@
     </row>
     <row r="356" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E356" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F356" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G356" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H356" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I356" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J356" s="6">
         <v>187873</v>
@@ -31136,31 +30872,31 @@
     </row>
     <row r="357" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D357" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E357" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F357" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G357" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H357" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I357" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J357" s="7">
         <v>101092</v>
@@ -31213,31 +30949,31 @@
     </row>
     <row r="358" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E358" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F358" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G358" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H358" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I358" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J358" s="6">
         <v>187833</v>
@@ -31290,31 +31026,31 @@
     </row>
     <row r="359" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D359" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E359" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F359" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G359" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H359" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I359" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J359" s="7">
         <v>205097</v>
@@ -31367,31 +31103,31 @@
     </row>
     <row r="360" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E360" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F360" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G360" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H360" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I360" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J360" s="6">
         <v>244248</v>
@@ -31444,31 +31180,31 @@
     </row>
     <row r="361" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D361" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E361" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F361" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G361" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H361" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I361" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J361" s="7">
         <v>160984</v>
@@ -31521,31 +31257,31 @@
     </row>
     <row r="362" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E362" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F362" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G362" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H362" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I362" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J362" s="6">
         <v>206146</v>
@@ -31598,31 +31334,31 @@
     </row>
     <row r="363" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D363" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E363" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F363" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G363" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H363" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I363" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J363" s="7">
         <v>222727</v>
@@ -31675,10 +31411,10 @@
     </row>
     <row r="364" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
-        <v>772</v>
+        <v>751</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="C364" s="6">
         <v>142536</v>
@@ -31752,31 +31488,31 @@
     </row>
     <row r="365" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D365" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E365" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F365" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G365" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H365" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I365" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J365" s="7">
         <v>144972</v>
@@ -31829,10 +31565,10 @@
     </row>
     <row r="366" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="C366" s="6">
         <v>84449</v>
@@ -31906,10 +31642,10 @@
     </row>
     <row r="367" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="C367" s="7">
         <v>233795</v>
@@ -31983,10 +31719,10 @@
     </row>
     <row r="368" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="C368" s="6">
         <v>213326</v>
@@ -32060,10 +31796,10 @@
     </row>
     <row r="369" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="C369" s="7">
         <v>80243</v>
@@ -32137,10 +31873,10 @@
     </row>
     <row r="370" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="C370" s="6">
         <v>136920</v>
@@ -32214,10 +31950,10 @@
     </row>
     <row r="371" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
       <c r="C371" s="7">
         <v>177703</v>
@@ -32291,10 +32027,10 @@
     </row>
     <row r="372" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
       <c r="C372" s="6">
         <v>163974</v>
@@ -32368,10 +32104,10 @@
     </row>
     <row r="373" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
       <c r="C373" s="7">
         <v>201400</v>
@@ -32445,10 +32181,10 @@
     </row>
     <row r="374" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
       <c r="C374" s="6">
         <v>289557</v>
@@ -32522,10 +32258,10 @@
     </row>
     <row r="375" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
-        <v>794</v>
+        <v>773</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>795</v>
+        <v>774</v>
       </c>
       <c r="C375" s="7">
         <v>131960</v>
@@ -32599,10 +32335,10 @@
     </row>
     <row r="376" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
-        <v>796</v>
+        <v>775</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>797</v>
+        <v>776</v>
       </c>
       <c r="C376" s="6">
         <v>268220</v>
@@ -32676,10 +32412,10 @@
     </row>
     <row r="377" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
-        <v>798</v>
+        <v>777</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>799</v>
+        <v>778</v>
       </c>
       <c r="C377" s="7">
         <v>196416</v>
@@ -32753,10 +32489,10 @@
     </row>
     <row r="378" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
       <c r="C378" s="6">
         <v>247611</v>
@@ -32830,10 +32566,10 @@
     </row>
     <row r="379" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
-        <v>802</v>
+        <v>781</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>803</v>
+        <v>782</v>
       </c>
       <c r="C379" s="7">
         <v>135798</v>
@@ -32907,10 +32643,10 @@
     </row>
     <row r="380" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>805</v>
+        <v>784</v>
       </c>
       <c r="C380" s="6">
         <v>215903</v>
@@ -32984,10 +32720,10 @@
     </row>
     <row r="381" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
       <c r="C381" s="7">
         <v>201267</v>
@@ -33061,10 +32797,10 @@
     </row>
     <row r="382" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
       <c r="C382" s="6">
         <v>114718</v>
@@ -33138,10 +32874,10 @@
     </row>
     <row r="383" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
       <c r="C383" s="7">
         <v>99779</v>
@@ -33215,10 +32951,10 @@
     </row>
     <row r="384" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>813</v>
+        <v>792</v>
       </c>
       <c r="C384" s="6">
         <v>49206</v>
@@ -33292,10 +33028,10 @@
     </row>
     <row r="385" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
       <c r="C385" s="7">
         <v>62452</v>
@@ -33369,10 +33105,10 @@
     </row>
     <row r="386" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>817</v>
+        <v>796</v>
       </c>
       <c r="C386" s="6">
         <v>114718</v>
@@ -33446,10 +33182,10 @@
     </row>
     <row r="387" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
-        <v>818</v>
+        <v>797</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>819</v>
+        <v>798</v>
       </c>
       <c r="C387" s="7">
         <v>99355</v>
@@ -33523,10 +33259,10 @@
     </row>
     <row r="388" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
-        <v>820</v>
+        <v>799</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="C388" s="6">
         <v>120643</v>
@@ -33600,10 +33336,10 @@
     </row>
     <row r="389" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="C389" s="7">
         <v>95290</v>
@@ -33677,10 +33413,10 @@
     </row>
     <row r="390" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="C390" s="6">
         <v>144546</v>
@@ -33754,10 +33490,10 @@
     </row>
     <row r="391" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
       <c r="C391" s="7">
         <v>149491</v>
@@ -33831,10 +33567,10 @@
     </row>
     <row r="392" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A392" s="4" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="C392" s="6">
         <v>81884</v>
@@ -33908,10 +33644,10 @@
     </row>
     <row r="393" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A393" s="4" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
       <c r="C393" s="7">
         <v>74167</v>
@@ -33985,10 +33721,10 @@
     </row>
     <row r="394" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="C394" s="6">
         <v>122513</v>
@@ -34062,10 +33798,10 @@
     </row>
     <row r="395" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="C395" s="7">
         <v>91937</v>
@@ -34139,10 +33875,10 @@
     </row>
     <row r="396" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="C396" s="6">
         <v>68423</v>
@@ -34216,10 +33952,10 @@
     </row>
     <row r="397" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
       <c r="C397" s="7">
         <v>134307</v>
@@ -34293,10 +34029,10 @@
     </row>
     <row r="398" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
       <c r="C398" s="6">
         <v>93679</v>
@@ -34370,10 +34106,10 @@
     </row>
     <row r="399" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
       <c r="C399" s="7">
         <v>99651</v>
@@ -34447,10 +34183,10 @@
     </row>
     <row r="400" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
-        <v>844</v>
+        <v>823</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>845</v>
+        <v>824</v>
       </c>
       <c r="C400" s="6">
         <v>125156</v>
@@ -34524,10 +34260,10 @@
     </row>
     <row r="401" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="C401" s="7">
         <v>115689</v>
@@ -34601,10 +34337,10 @@
     </row>
     <row r="402" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="C402" s="6">
         <v>44499</v>
@@ -34678,10 +34414,10 @@
     </row>
     <row r="403" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
       <c r="C403" s="7">
         <v>145712</v>
@@ -34755,76 +34491,76 @@
     </row>
     <row r="404" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Q404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="R404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="S404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="T404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="U404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="V404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="W404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="X404" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Y404" s="6">
         <v>121791</v>
@@ -34832,76 +34568,76 @@
     </row>
     <row r="405" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="C405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Q405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="R405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="S405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="T405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="U405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="V405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="W405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="X405" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Y405" s="7">
         <v>156566</v>
@@ -34909,76 +34645,76 @@
     </row>
     <row r="406" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Q406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="R406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="S406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="T406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="U406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="V406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="W406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="X406" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Y406" s="6">
         <v>36325</v>
@@ -34986,76 +34722,76 @@
     </row>
     <row r="407" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
-        <v>858</v>
+        <v>837</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Q407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="R407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="S407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="T407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="U407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="V407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="W407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="X407" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Y407" s="7">
         <v>106975</v>
@@ -35063,76 +34799,76 @@
     </row>
     <row r="408" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Q408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="R408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="S408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="T408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="U408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="V408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="W408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="X408" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Y408" s="6">
         <v>101556</v>
@@ -35140,76 +34876,76 @@
     </row>
     <row r="409" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="C409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Q409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="R409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="S409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="T409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="U409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="V409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="W409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="X409" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Y409" s="7">
         <v>56412</v>
@@ -35217,46 +34953,46 @@
     </row>
     <row r="410" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E410" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F410" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G410" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H410" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I410" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J410" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K410" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L410" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M410" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N410" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O410" s="6">
         <v>392323</v>
@@ -35294,46 +35030,46 @@
     </row>
     <row r="411" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="C411" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D411" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E411" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F411" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G411" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H411" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I411" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J411" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K411" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L411" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M411" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N411" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O411" s="7">
         <v>439759</v>
@@ -35371,46 +35107,46 @@
     </row>
     <row r="412" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E412" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F412" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G412" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H412" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I412" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J412" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K412" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L412" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M412" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N412" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O412" s="6">
         <v>469755</v>
@@ -35448,46 +35184,46 @@
     </row>
     <row r="413" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A413" s="4" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E413" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F413" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G413" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H413" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I413" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J413" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K413" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L413" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M413" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N413" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O413" s="7">
         <v>411173</v>
@@ -35525,46 +35261,46 @@
     </row>
     <row r="414" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A414" s="4" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E414" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F414" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G414" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H414" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I414" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J414" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K414" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L414" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M414" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N414" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O414" s="6">
         <v>666169</v>
@@ -35602,46 +35338,46 @@
     </row>
     <row r="415" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A415" s="4" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D415" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E415" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F415" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G415" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H415" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I415" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J415" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K415" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L415" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M415" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N415" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O415" s="7">
         <v>1260940</v>
@@ -35679,46 +35415,46 @@
     </row>
     <row r="416" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A416" s="4" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E416" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F416" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H416" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J416" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K416" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L416" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M416" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N416" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O416" s="6">
         <v>662842</v>
@@ -35756,46 +35492,46 @@
     </row>
     <row r="417" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A417" s="4" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="C417" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D417" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E417" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F417" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G417" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H417" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I417" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J417" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K417" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L417" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M417" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N417" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O417" s="7">
         <v>286326</v>
@@ -35833,49 +35569,49 @@
     </row>
     <row r="418" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A418" s="4" t="s">
-        <v>880</v>
+        <v>859</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>881</v>
+        <v>860</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E418" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F418" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H418" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J418" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K418" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L418" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M418" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N418" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O418" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P418" s="6">
         <v>117401</v>
@@ -35910,49 +35646,49 @@
     </row>
     <row r="419" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A419" s="4" t="s">
-        <v>882</v>
+        <v>861</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>883</v>
+        <v>862</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D419" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E419" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F419" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G419" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H419" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I419" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J419" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K419" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L419" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M419" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N419" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O419" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P419" s="7">
         <v>83384</v>
@@ -35987,49 +35723,49 @@
     </row>
     <row r="420" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A420" s="4" t="s">
-        <v>884</v>
+        <v>863</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>885</v>
+        <v>864</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E420" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F420" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H420" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J420" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K420" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L420" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M420" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N420" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O420" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P420" s="6">
         <v>76189</v>
@@ -36064,49 +35800,49 @@
     </row>
     <row r="421" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
-        <v>886</v>
+        <v>865</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
       <c r="C421" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D421" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E421" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F421" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G421" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H421" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I421" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J421" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K421" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L421" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M421" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N421" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O421" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P421" s="7">
         <v>156417</v>
@@ -36141,49 +35877,49 @@
     </row>
     <row r="422" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E422" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F422" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G422" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H422" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I422" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J422" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K422" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L422" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M422" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N422" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O422" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P422" s="6">
         <v>301224</v>
@@ -36218,49 +35954,49 @@
     </row>
     <row r="423" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A423" s="4" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
       <c r="C423" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D423" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E423" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F423" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G423" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H423" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I423" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J423" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K423" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L423" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M423" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N423" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O423" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P423" s="7">
         <v>176686</v>
@@ -36295,49 +36031,49 @@
     </row>
     <row r="424" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A424" s="4" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E424" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F424" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G424" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H424" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I424" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J424" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K424" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L424" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M424" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N424" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O424" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P424" s="6">
         <v>126251</v>
@@ -36372,49 +36108,49 @@
     </row>
     <row r="425" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A425" s="4" t="s">
-        <v>894</v>
+        <v>873</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="C425" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D425" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E425" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F425" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G425" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H425" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I425" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J425" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K425" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L425" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M425" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N425" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O425" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P425" s="7">
         <v>168142</v>
@@ -36449,13 +36185,13 @@
     </row>
     <row r="426" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D426" s="6">
         <v>296416</v>
@@ -36526,13 +36262,13 @@
     </row>
     <row r="427" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="C427" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D427" s="7">
         <v>55914</v>
@@ -36603,13 +36339,13 @@
     </row>
     <row r="428" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D428" s="6">
         <v>154111</v>
@@ -36680,13 +36416,13 @@
     </row>
     <row r="429" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A429" s="4" t="s">
-        <v>902</v>
+        <v>881</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="C429" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D429" s="7">
         <v>109694</v>
@@ -36757,13 +36493,13 @@
     </row>
     <row r="430" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A430" s="4" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D430" s="6">
         <v>432879</v>
@@ -36834,13 +36570,13 @@
     </row>
     <row r="431" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
-        <v>906</v>
+        <v>885</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
       <c r="C431" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D431" s="7">
         <v>197222</v>
@@ -36911,13 +36647,13 @@
     </row>
     <row r="432" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A432" s="4" t="s">
-        <v>908</v>
+        <v>887</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D432" s="6">
         <v>116954</v>
@@ -36988,13 +36724,13 @@
     </row>
     <row r="433" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A433" s="4" t="s">
-        <v>910</v>
+        <v>889</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="C433" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D433" s="7">
         <v>770392</v>
@@ -37057,21 +36793,21 @@
         <v>809235</v>
       </c>
       <c r="X433" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Y433" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="434" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A434" s="4" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D434" s="6">
         <v>295309</v>
@@ -37134,21 +36870,21 @@
         <v>309611</v>
       </c>
       <c r="X434" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Y434" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="435" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
-        <v>914</v>
+        <v>893</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
       <c r="C435" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D435" s="7">
         <v>139728</v>
@@ -37211,21 +36947,21 @@
         <v>124407</v>
       </c>
       <c r="X435" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Y435" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="436" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A436" s="4" t="s">
-        <v>916</v>
+        <v>895</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>917</v>
+        <v>896</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D436" s="6">
         <v>180869</v>
@@ -37288,21 +37024,21 @@
         <v>165885</v>
       </c>
       <c r="X436" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Y436" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="437" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="C437" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D437" s="7">
         <v>121689</v>
@@ -37365,21 +37101,21 @@
         <v>105886</v>
       </c>
       <c r="X437" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Y437" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="438" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A438" s="4" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D438" s="6">
         <v>113973</v>
@@ -37442,21 +37178,21 @@
         <v>109130</v>
       </c>
       <c r="X438" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Y438" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="439" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A439" s="4" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D439" s="7">
         <v>130217</v>
@@ -37519,21 +37255,21 @@
         <v>105554</v>
       </c>
       <c r="X439" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Y439" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="440" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A440" s="4" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D440" s="6">
         <v>92294</v>
@@ -37596,21 +37332,21 @@
         <v>72843</v>
       </c>
       <c r="X440" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Y440" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="441" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A441" s="4" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
       <c r="C441" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D441" s="7">
         <v>83492</v>
@@ -37673,21 +37409,21 @@
         <v>65614</v>
       </c>
       <c r="X441" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Y441" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="442" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A442" s="4" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D442" s="6">
         <v>164642</v>
@@ -37750,21 +37486,21 @@
         <v>136429</v>
       </c>
       <c r="X442" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Y442" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="443" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A443" s="4" t="s">
-        <v>930</v>
+        <v>909</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D443" s="7">
         <v>318415</v>
@@ -37827,21 +37563,21 @@
         <v>270877</v>
       </c>
       <c r="X443" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Y443" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="444" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A444" s="4" t="s">
-        <v>932</v>
+        <v>911</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>933</v>
+        <v>912</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D444" s="6">
         <v>190486</v>
@@ -37904,21 +37640,21 @@
         <v>149489</v>
       </c>
       <c r="X444" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Y444" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="445" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A445" s="4" t="s">
-        <v>934</v>
+        <v>913</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>935</v>
+        <v>914</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D445" s="7">
         <v>140809</v>
@@ -37981,21 +37717,21 @@
         <v>114804</v>
       </c>
       <c r="X445" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Y445" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="446" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A446" s="4" t="s">
-        <v>936</v>
+        <v>915</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D446" s="6">
         <v>189901</v>
@@ -38058,57 +37794,57 @@
         <v>144599</v>
       </c>
       <c r="X446" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="Y446" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="447" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A447" s="4" t="s">
-        <v>938</v>
+        <v>917</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D447" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E447" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F447" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G447" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H447" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I447" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J447" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K447" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L447" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M447" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N447" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O447" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P447" s="7">
         <v>790038</v>
@@ -38143,49 +37879,49 @@
     </row>
     <row r="448" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
-        <v>940</v>
+        <v>919</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D448" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E448" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F448" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G448" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H448" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I448" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J448" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K448" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L448" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M448" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N448" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O448" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P448" s="6">
         <v>113260</v>
@@ -38220,49 +37956,49 @@
     </row>
     <row r="449" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A449" s="4" t="s">
-        <v>942</v>
+        <v>921</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>943</v>
+        <v>922</v>
       </c>
       <c r="C449" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D449" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E449" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F449" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G449" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H449" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I449" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J449" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K449" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L449" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M449" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N449" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O449" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P449" s="7">
         <v>174419</v>
@@ -38297,49 +38033,49 @@
     </row>
     <row r="450" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A450" s="4" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>945</v>
+        <v>924</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D450" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E450" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F450" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G450" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H450" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I450" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J450" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K450" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L450" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M450" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N450" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O450" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P450" s="6">
         <v>114271</v>
@@ -38374,49 +38110,49 @@
     </row>
     <row r="451" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A451" s="4" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D451" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E451" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F451" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G451" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H451" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I451" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J451" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K451" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L451" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M451" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N451" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O451" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P451" s="7">
         <v>131103</v>
@@ -38451,49 +38187,49 @@
     </row>
     <row r="452" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A452" s="4" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D452" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E452" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F452" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G452" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H452" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="I452" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="J452" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="K452" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L452" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M452" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N452" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="O452" s="6" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="P452" s="6">
         <v>317634</v>
@@ -38528,10 +38264,10 @@
     </row>
     <row r="453" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A453" s="4" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
       <c r="C453" s="7">
         <v>616275</v>
@@ -38605,10 +38341,10 @@
     </row>
     <row r="454" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A454" s="4" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>953</v>
+        <v>932</v>
       </c>
       <c r="C454" s="6">
         <v>275632</v>
@@ -38682,10 +38418,10 @@
     </row>
     <row r="455" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A455" s="4" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>955</v>
+        <v>934</v>
       </c>
       <c r="C455" s="7">
         <v>403067</v>
@@ -38759,10 +38495,10 @@
     </row>
     <row r="456" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A456" s="4" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="C456" s="6">
         <v>943427</v>
@@ -38836,10 +38572,10 @@
     </row>
     <row r="457" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A457" s="4" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>959</v>
+        <v>938</v>
       </c>
       <c r="C457" s="7">
         <v>234307</v>
@@ -38913,10 +38649,10 @@
     </row>
     <row r="458" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A458" s="4" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>961</v>
+        <v>940</v>
       </c>
       <c r="C458" s="6">
         <v>243908</v>
@@ -38990,10 +38726,10 @@
     </row>
     <row r="459" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A459" s="4" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>963</v>
+        <v>942</v>
       </c>
       <c r="C459" s="7">
         <v>165649</v>
@@ -39067,10 +38803,10 @@
     </row>
     <row r="460" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A460" s="4" t="s">
-        <v>964</v>
+        <v>943</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>965</v>
+        <v>944</v>
       </c>
       <c r="C460" s="6">
         <v>68818</v>
@@ -39144,10 +38880,10 @@
     </row>
     <row r="461" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A461" s="4" t="s">
-        <v>966</v>
+        <v>945</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>967</v>
+        <v>946</v>
       </c>
       <c r="C461" s="7">
         <v>188458</v>
@@ -39221,10 +38957,10 @@
     </row>
     <row r="462" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A462" s="4" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>969</v>
+        <v>948</v>
       </c>
       <c r="C462" s="6">
         <v>258602</v>
@@ -39298,10 +39034,10 @@
     </row>
     <row r="463" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A463" s="4" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>971</v>
+        <v>950</v>
       </c>
       <c r="C463" s="7">
         <v>540639</v>
@@ -39375,10 +39111,10 @@
     </row>
     <row r="464" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A464" s="4" t="s">
-        <v>972</v>
+        <v>951</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
       <c r="C464" s="6">
         <v>1198569</v>
@@ -39452,10 +39188,10 @@
     </row>
     <row r="465" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A465" s="4" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>975</v>
+        <v>954</v>
       </c>
       <c r="C465" s="7">
         <v>38708</v>
@@ -39529,10 +39265,10 @@
     </row>
     <row r="466" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A466" s="4" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>977</v>
+        <v>956</v>
       </c>
       <c r="C466" s="6">
         <v>73552</v>
@@ -39606,10 +39342,10 @@
     </row>
     <row r="467" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A467" s="4" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>979</v>
+        <v>958</v>
       </c>
       <c r="C467" s="7">
         <v>53737</v>
@@ -39683,10 +39419,10 @@
     </row>
     <row r="468" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A468" s="4" t="s">
-        <v>980</v>
+        <v>959</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="C468" s="6">
         <v>14946</v>
@@ -39760,10 +39496,10 @@
     </row>
     <row r="469" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A469" s="4" t="s">
-        <v>982</v>
+        <v>961</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>983</v>
+        <v>962</v>
       </c>
       <c r="C469" s="7">
         <v>447609</v>
@@ -39837,10 +39573,10 @@
     </row>
     <row r="470" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A470" s="4" t="s">
-        <v>984</v>
+        <v>963</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>985</v>
+        <v>964</v>
       </c>
       <c r="C470" s="6">
         <v>186026</v>
@@ -39914,10 +39650,10 @@
     </row>
     <row r="471" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A471" s="4" t="s">
-        <v>986</v>
+        <v>965</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>987</v>
+        <v>966</v>
       </c>
       <c r="C471" s="7">
         <v>227285</v>
@@ -39991,10 +39727,10 @@
     </row>
     <row r="472" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A472" s="4" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C472" s="6">
         <v>345357</v>
@@ -40068,10 +39804,10 @@
     </row>
     <row r="473" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A473" s="4" t="s">
-        <v>990</v>
+        <v>969</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>991</v>
+        <v>970</v>
       </c>
       <c r="C473" s="7">
         <v>35487</v>
@@ -40145,10 +39881,10 @@
     </row>
     <row r="474" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A474" s="4" t="s">
-        <v>992</v>
+        <v>971</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>993</v>
+        <v>972</v>
       </c>
       <c r="C474" s="6">
         <v>128248</v>
@@ -40222,10 +39958,10 @@
     </row>
     <row r="475" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A475" s="4" t="s">
-        <v>994</v>
+        <v>973</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>995</v>
+        <v>974</v>
       </c>
       <c r="C475" s="7">
         <v>32225</v>
@@ -40299,10 +40035,10 @@
     </row>
     <row r="476" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A476" s="4" t="s">
-        <v>996</v>
+        <v>975</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>997</v>
+        <v>976</v>
       </c>
       <c r="C476" s="6">
         <v>37657</v>
@@ -40376,10 +40112,10 @@
     </row>
     <row r="477" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A477" s="4" t="s">
-        <v>998</v>
+        <v>977</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>999</v>
+        <v>978</v>
       </c>
       <c r="C477" s="7">
         <v>97758</v>
@@ -40453,10 +40189,10 @@
     </row>
     <row r="478" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A478" s="4" t="s">
-        <v>1000</v>
+        <v>979</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>1001</v>
+        <v>980</v>
       </c>
       <c r="C478" s="6">
         <v>308498</v>
@@ -40530,28 +40266,28 @@
     </row>
     <row r="480" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>1002</v>
+        <v>981</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>1003</v>
+        <v>982</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>1004</v>
+        <v>983</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>1005</v>
+        <v>984</v>
       </c>
     </row>
   </sheetData>
